--- a/Supplementary Tables.xlsx
+++ b/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siobh\Documents\Uni\PhD\Repos\clozapine\fancy-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siobh\Documents\Uni\PhD\Y1\Clozapine Project\Git\clozapine-project\Z Write Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F20BB-9875-464F-8541-6187C651030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE7F82B-E7AD-444B-AE58-89276CE7C5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{28DC69DB-FF7C-414F-AEA8-1A38A7BCE324}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="5" activeTab="8" xr2:uid="{28DC69DB-FF7C-414F-AEA8-1A38A7BCE324}"/>
   </bookViews>
   <sheets>
     <sheet name="ST1 (CYP1A2 PGx)" sheetId="6" r:id="rId1"/>
@@ -21,9 +21,8 @@
     <sheet name="ST6 (HLA LMM)" sheetId="13" r:id="rId6"/>
     <sheet name="ST7 (CLOZAPINE M1)" sheetId="14" r:id="rId7"/>
     <sheet name="ST8 (NORCLOZAPINE M1)" sheetId="15" r:id="rId8"/>
-    <sheet name="ST9 (REPLICATION CORRELATIONS)" sheetId="16" r:id="rId9"/>
-    <sheet name="ST10 (REPLICATION REGRESSIONS)" sheetId="17" r:id="rId10"/>
-    <sheet name="Supplementary References" sheetId="20" r:id="rId11"/>
+    <sheet name="ST9 (REPLICATION REGRESSIONS)" sheetId="17" r:id="rId9"/>
+    <sheet name="Supplementary References" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,15 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="345">
   <si>
     <t>NA</t>
   </si>
   <si>
     <t>Activity Score</t>
-  </si>
-  <si>
-    <t>EUR Frequency (Neyshaburinezhad et al. 2021)</t>
   </si>
   <si>
     <t>*1A</t>
@@ -841,39 +837,6 @@
     <t>Prop Mediated (Average)</t>
   </si>
   <si>
-    <t>Present Study</t>
-  </si>
-  <si>
-    <t>Willcocks et al., (2021)</t>
-  </si>
-  <si>
-    <t>Vaquero-Baez et al., (2019)</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>[Clozapine] (mg/L)</t>
-  </si>
-  <si>
-    <r>
-      <t>-0.033</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
     <t>Model 1</t>
   </si>
   <si>
@@ -1017,12 +980,6 @@
     </r>
   </si>
   <si>
-    <t>[Norclozapine] (mg/L)</t>
-  </si>
-  <si>
-    <t>Daily Dose (mg/day)</t>
-  </si>
-  <si>
     <r>
       <t>4.05 x 10</t>
     </r>
@@ -1187,105 +1144,12 @@
     <t>Latent</t>
   </si>
   <si>
-    <t>Increases in plasma clozapine concentration are associated with decreased ANC</t>
-  </si>
-  <si>
-    <t>Norclozapine is the primary product of CYP-mediated clozapine metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma clozapine concentration is used alongside plasma norclozapine concentration to calculate metabolic ratio. </t>
-  </si>
-  <si>
-    <t>Clozapine can be oxidised in the presence of hypochlorous acid and chloride to the nitrenium ion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increases in clozapine dose generally result in increased plasma clozapine levels. </t>
-  </si>
-  <si>
-    <t>Increases in metabolic ratio (increased plasma clozapine with respect to plasma norclozapine) are associated with decreased ANC</t>
-  </si>
-  <si>
-    <t>Increases in plasma norclozapine concentration are associated with increased ANC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma norclozapine concentration is used alongside plasma clozapine concentration to calculate metabolic ratio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP1A2 is involved in the metabolism of clozapine to norclozapine, therefore increased activity results in faster clearance of clozapine, resulting in decreased levels. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men are more likely to develop treatment resistant schizophrenia than women. </t>
-  </si>
-  <si>
-    <t>The Duffy-Null Genotype is associated with decreased baseline absolute neutrophil count in carriers compared to non-carriers.</t>
-  </si>
-  <si>
     <t>Cigarette Use</t>
   </si>
   <si>
-    <t xml:space="preserve">Cigarette smoking induces CYP1A2 activity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine consumption induces CYP1A2 activity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norclozapine may also react to form a reactive nitrenium intermediate. </t>
-  </si>
-  <si>
     <t>Nitrenium ion</t>
   </si>
   <si>
-    <t xml:space="preserve">The nitrenium ion is thought to be a key instigator of neutrophil apoptosis in clozapine users. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clozapine is prescribed to individuals with a diagnosis of treatment resistant schizophrenia due to its effectiveness at dealing with refactory symptoms of schizophrenia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">People with schizophrenia who are not responsive to at least two types of antipsychotic medication, delivered at an appropriate dose, and for an appropriate length of time, and having ruled out non-adherance are diagnosed with Treatment Resistant Schizophrenia. </t>
-  </si>
-  <si>
-    <t>Agranulocytosis and Neutropenia are some of the adverse drug reactions that may arise following clozapine use.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age is positively associated with plasma clozapine concentration. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age is positively associated with plasma norclozapine concentration. </t>
-  </si>
-  <si>
-    <t>rs2472297_T was associated with decreased plasma clozapine levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs2011425_G and rs61750900_T are both associated with decreased plasma norclozapine levels. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs1126545_T was associated with increased metabolic ratio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clozapine use can result in weight gain as an adverse drug reaction; some research has shown that this weight gain also varies with respect to dose. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRS for clozapine metabolism was associated with plasma clozapine concentration. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRS for norclozapine metabolism was associated with plasma norclozapine concentration. </t>
-  </si>
-  <si>
-    <t>Caution is advised when prescribing clozapine to elderly people due to increased likelihood of impaired renal function, resulting in slower titration and/or reduced doses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigarette smoking can result in changes to white blood cell count. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine consumption was shown to increase white blood cell count in mice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pharmacogenomic activity score is a proxy of enzyme activity calculated on the basis of pharmacogenomic variants of known function in a given pharmacogene. While initially developed for CYP2D6, we have applied it to CYP1A2 on the basis of PharmGKB VIP information. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. </t>
-  </si>
-  <si>
     <t>Alarcan, H., Cannet, P., Camus, V., Fond, G., Zendjidjian, X., Guilhaumou, R. and Quaranta, S., 2023. Correlation between assessment of cytochrome P450 1A2 activity and enzyme activity scores, and their relation to clozapine exposure. British Journal of Clinical Pharmacology.</t>
   </si>
   <si>
@@ -2349,12 +2213,6 @@
     </r>
   </si>
   <si>
-    <t>Patient smoking status (and smoking cessation) is a key consideration during clozapine titration and dosing.</t>
-  </si>
-  <si>
-    <t>Patient sex taken into consideration during clozapine titration.</t>
-  </si>
-  <si>
     <r>
       <t>Correll, C.U., Agid, O., Crespo-Facorro, B., de Bartolomeis, A., Fagiolini, A., Seppälä, N. and Howes, O.D., 2022. A guideline and checklist for initiating and managing clozapine treatment in patients with treatment-resistant schizophrenia. </t>
     </r>
@@ -2455,24 +2313,6 @@
     <t>Concommitant Medication</t>
   </si>
   <si>
-    <t>Increased weight and obesity has been associated with elevated neutrophil counts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Being female is associated with increased neutrophil counts in comparison to being male. </t>
-  </si>
-  <si>
-    <t>Being female is associated with increased plasma clozapine concentration in comparison to males.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Males are heavier than females based on self-reported weight. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are many other medications, other than clozapine, that may cause drug-induced neutropenia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aside from caffeine and cigarette use, CYP1A2 activity may also be affected by other medication that patients may be taking. </t>
-  </si>
-  <si>
     <r>
       <t>Sanchez-Pino, M.D., Richardson, W.S., Zabaleta, J., Puttalingaiah, R.T., Chapple, A.G., Liu, J., Kim, Y., Ponder, M., DeArmitt, R., Baiamonte, L.B. and Wyczechowska, D., 2022. Increased inflammatory low-density neutrophils in severe obesity and effect of bariatric surgery: Results from case-control and prospective cohort studies. </t>
     </r>
@@ -2682,9 +2522,6 @@
     <t># (Path)</t>
   </si>
   <si>
-    <t>EUR ALFA Allele Frequency (dbSNP)</t>
-  </si>
-  <si>
     <t>Supplementary Table 1. CYP1A2 Pharmacogenomic (PGx) star allele activity identified in CLOZUK3 sample. Table shows activity scores assigned to each allele, alongside a comparison of allele frequencies in CLOZUK3, and previous research in similar samples (Phan et al., 2020; Neyshaburinezhad et al. 2021). PGx = Pharmacogenomic; EUR = European.</t>
   </si>
   <si>
@@ -2775,12 +2612,6 @@
     <t>Supplementary Table 6. Condensed results of Linear Mixed Models exploring predictors of Absolute Neutrophil Count (ANC) in the CLOZUK3 sample. HLA genotype was included as a predictor alongside pharmacokinetic variables (i.e., daily clozapine dose, plasma clozapine and norclozapine concentration) and  other covariates (i.e., TDS, sex, age, age2). Standardised regression coefficients for the effect of HLA genotype from each analysis alone are reported alongside standard error and p values estimated using lmerTest package. Bonferroni &amp; FDR-adjusted p values are also reported. HLA = Human Leukocyte Antigen; FDR = False Discovery Rate.</t>
   </si>
   <si>
-    <t>Supplementary Table 9. Spearman’s correlation estimate (rho) of relationship between medication variables and lowest ANC, alongside p values and an estimated effect size, t. Results shown for present study and those observed in Willcocks et al., (2021) and Vaquero-Baez et al., (2019).</t>
-  </si>
-  <si>
-    <t>Supplementary Table 10. Replication Analysis: Predictors of Lowest Absolute Neutrophil Count. Standardised regression coefficients are reported alongside standard error and p values. TDS = Time between Dose and Sample; ANC = Absolute Neutrophil Count.</t>
-  </si>
-  <si>
     <t>Supplementary Table 3. Variables Included in DAG showing the causal associations between clozapine dose and absolute neutrophil count in a sample of clozapine users not currently experiencing neutropenia.  Columns A - C show nodes and their properties. Columns D - H show paths included and their rationale.</t>
   </si>
   <si>
@@ -4714,54 +4545,321 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Vaquero-Baez, M. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clozapine and desmethylclozapine: correlation with neutrophils and leucocytes counting in Mexican patients with schizophrenia | BMC Psychiatry | Full Text. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BMC Psychiatry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EUR Frequency </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EUR ALFA Allele Frequency </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caution is advised when prescribing clozapine to elderly people due to increased likelihood of impaired renal function, resulting in slower titration and/or reduced doses. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age is positively associated with plasma clozapine concentration.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age is positively associated with plasma norclozapine concentration.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caffeine consumption was shown to increase white blood cell count in mice. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caffeine consumption induces CYP1A2 activity. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patient smoking status (and smoking cessation) is a key consideration during clozapine titration and dosing. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cigarette smoking can result in changes to white blood cell count. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cigarette smoking induces CYP1A2 activity. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agranulocytosis and Neutropenia are some of the adverse drug reactions that may arise following clozapine use. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases in clozapine dose generally result in increased plasma clozapine levels. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clozapine use can result in weight gain as an adverse drug reaction; some research has shown that this weight gain also varies with respect to dose. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are many other medications, other than clozapine, that may cause drug-induced neutropenia. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aside from caffeine and cigarette use, CYP1A2 activity may also be affected by other medication that patients may be taking. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CYP1A2 is involved in the metabolism of clozapine to norclozapine, therefore increased activity results in faster clearance of clozapine, resulting in decreased levels. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A pharmacogenomic activity score is a proxy of enzyme activity calculated on the basis of pharmacogenomic variants of known function in a given pharmacogene. While initially developed for CYP2D6, we have applied it to CYP1A2 on the basis of PharmGKB VIP information. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Duffy-Null Genotype is associated with decreased baseline absolute neutrophil count in carriers compared to non-carriers. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increases in metabolic ratio (increased plasma clozapine with respect to plasma norclozapine) are associated with decreased ANC.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The nitrenium ion is thought to be a key instigator of neutrophil apoptosis in clozapine users. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4770,19 +4868,348 @@
       </rPr>
       <t>19</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (2019).</t>
-    </r>
-  </si>
-  <si>
-    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rs2472297_T was associated with decreased plasma clozapine levels. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rs2011425_G and rs61750900_T are both associated with decreased plasma norclozapine levels. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rs1126545_T was associated with increased metabolic ratio. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases in plasma clozapine concentration are associated with decreased ANC. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Norclozapine is the primary product of CYP-mediated clozapine metabolism. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plasma clozapine concentration is used alongside plasma norclozapine concentration to calculate metabolic ratio. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clozapine can be oxidised in the presence of hypochlorous acid and chloride to the nitrenium ion. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases in plasma norclozapine concentration are associated with increased ANC. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plasma norclozapine concentration is used alongside plasma clozapine concentration to calculate metabolic ratio. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Norclozapine may also react to form a reactive nitrenium intermediate. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRS for clozapine metabolism was associated with plasma clozapine concentration. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRS for norclozapine metabolism was associated with plasma norclozapine concentration. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Men are more likely to develop treatment resistant schizophrenia than women. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patient sex taken into consideration during clozapine titration. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Being female is associated with increased plasma clozapine concentration in comparison to males. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Being female is associated with increased neutrophil counts in comparison to being male. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Males are heavier than females based on self-reported weight. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. 30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clozapine is prescribed to individuals with a diagnosis of treatment resistant schizophrenia due to its effectiveness at dealing with refactory symptoms of schizophrenia. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People with schizophrenia who are not responsive to at least two types of antipsychotic medication, delivered at an appropriate dose, and for an appropriate length of time, and having ruled out non-adherance are diagnosed with Treatment Resistant Schizophrenia. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increased weight and obesity has been associated with elevated neutrophil counts. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplementary Table 9. Replication Analysis: Predictors of Lowest Absolute Neutrophil Count. Standardised regression coefficients are reported alongside standard error and p values. TDS = Time between Dose and Sample; ANC = Absolute Neutrophil Count.</t>
   </si>
 </sst>
 </file>
@@ -4888,13 +5315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4959,6 +5379,15 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF181818"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5156,7 +5585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5207,22 +5636,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5230,9 +5656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5273,7 +5696,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5286,7 +5709,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5390,22 +5813,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5724,7 +6147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A9489-34EA-41EE-B3C5-CD04DB47AFBC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5736,93 +6159,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>295</v>
+      <c r="D1" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="34">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="32">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="35">
+        <v>3</v>
+      </c>
+      <c r="B3" s="33">
         <v>0.5</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="35">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33">
         <v>1.5</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>0.67</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="33">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="35">
+        <v>5</v>
+      </c>
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5831,471 +6254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC9DD3-F7A6-4C01-B84F-384209B90676}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1ED4A9-3641-4FF1-B1F3-6D371F092831}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26"/>
-      <c r="B1" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-0.121</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.151</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.124</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="F8" s="35">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0.27</v>
-      </c>
-      <c r="I8" s="34">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.186</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="1">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="4">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="4">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="83">
-        <v>811</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="83">
-        <v>811</v>
-      </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="57">
-        <v>517</v>
-      </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1ED4A9-3641-4FF1-B1F3-6D371F092831}">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6304,8 +6267,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>354</v>
+      <c r="A1" s="44" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6337,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6345,7 +6308,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +6316,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6361,7 +6324,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6369,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6377,7 +6340,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6385,7 +6348,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6393,7 +6356,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6401,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6409,7 +6372,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6417,7 +6380,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +6388,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6433,7 +6396,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6441,7 +6404,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6449,7 +6412,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6457,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6465,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6473,7 +6436,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6481,7 +6444,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6489,7 +6452,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +6460,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6505,7 +6468,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6513,7 +6476,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6521,7 +6484,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6529,7 +6492,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6537,7 +6500,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6545,7 +6508,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6516,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6524,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,15 +6532,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6603,22 +6558,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>123</v>
+      <c r="D1" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3">
         <v>28</v>
@@ -6627,12 +6582,12 @@
         <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3">
         <v>49</v>
@@ -6641,12 +6596,12 @@
         <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="B4" s="3">
         <v>26</v>
@@ -6655,12 +6610,12 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B5" s="3">
         <v>18</v>
@@ -6669,12 +6624,12 @@
         <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="B6" s="3">
         <v>14</v>
@@ -6683,12 +6638,12 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B7" s="3">
         <v>16</v>
@@ -6697,12 +6652,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="B8" s="3">
         <v>36</v>
@@ -6711,7 +6666,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6719,7 +6674,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6731,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A1845C-D015-45E2-8F98-B8D6139A0EF1}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6741,892 +6696,892 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="232.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="235.33203125" customWidth="1"/>
     <col min="8" max="8" width="154.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A22" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D41" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
         <v>203</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D30">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>242</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D32">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D33">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D34">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D35">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>265</v>
+        <v>339</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -7635,75 +7590,75 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D40">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>279</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>285</v>
+        <v>343</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7731,43 +7686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="17">
         <v>9.4E-2</v>
@@ -7790,7 +7745,7 @@
     </row>
     <row r="4" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="18">
         <v>-0.152</v>
@@ -7813,7 +7768,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="18">
         <v>0.221</v>
@@ -7822,7 +7777,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3">
         <v>0.219</v>
@@ -7831,12 +7786,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="17">
         <v>5.3999999999999999E-2</v>
@@ -7859,7 +7814,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="18">
         <v>-0.09</v>
@@ -7882,7 +7837,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="18">
         <v>0.21299999999999999</v>
@@ -7891,7 +7846,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="E8" s="3">
         <v>0.21199999999999999</v>
@@ -7899,14 +7854,14 @@
       <c r="F8" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="H8" s="49"/>
+      <c r="G8" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="18">
         <v>-6.9000000000000006E-2</v>
@@ -7929,7 +7884,7 @@
     </row>
     <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="17">
         <v>0.14499999999999999</v>
@@ -7952,7 +7907,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7968,118 +7923,118 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="A12" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="60">
+        <v>26</v>
+      </c>
+      <c r="B13" s="58">
         <v>0.71399999999999997</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="57">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="55">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="57">
+        <v>27</v>
+      </c>
+      <c r="B14" s="55">
         <v>0.96199999999999997</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="57">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="55">
         <v>0.96899999999999997</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="57">
+        <v>28</v>
+      </c>
+      <c r="B15" s="55">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="57">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="55">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="57">
+        <v>29</v>
+      </c>
+      <c r="B16" s="55">
         <v>523</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="57">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55">
         <v>521</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="57">
+        <v>30</v>
+      </c>
+      <c r="B18" s="55">
         <v>1586</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="57">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="55">
         <v>1580</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +8066,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J3" sqref="J3:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8123,43 +8078,43 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="15">
         <v>0.104</v>
@@ -8182,7 +8137,7 @@
     </row>
     <row r="4" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15">
         <v>-0.15</v>
@@ -8205,7 +8160,7 @@
     </row>
     <row r="5" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="15">
         <v>0.216</v>
@@ -8214,7 +8169,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="18">
         <v>0.22600000000000001</v>
@@ -8228,7 +8183,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="15">
         <v>6.5000000000000002E-2</v>
@@ -8251,7 +8206,7 @@
     </row>
     <row r="7" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="15">
         <v>-0.112</v>
@@ -8274,7 +8229,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="15">
         <v>0.216</v>
@@ -8283,7 +8238,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="18">
         <v>0.21299999999999999</v>
@@ -8292,12 +8247,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="15">
         <v>-0.1</v>
@@ -8320,7 +8275,7 @@
     </row>
     <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="15">
         <v>-0.77</v>
@@ -8337,7 +8292,7 @@
     </row>
     <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -8354,7 +8309,7 @@
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -8370,129 +8325,129 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="51"/>
+      <c r="A13" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="73">
+      <c r="A14" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="71">
         <v>0.71299999999999997</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="73">
+      <c r="C14" s="72"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="71">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="51"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="57">
+        <v>141</v>
+      </c>
+      <c r="B16" s="55">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="57">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55">
         <v>0.98099999999999998</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="57">
+        <v>28</v>
+      </c>
+      <c r="B17" s="55">
         <v>0.56899999999999995</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="57">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="55">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="57">
+        <v>29</v>
+      </c>
+      <c r="B18" s="55">
         <v>496</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="57">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="55">
         <v>523</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="79"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="57">
+        <v>30</v>
+      </c>
+      <c r="B20" s="55">
         <v>1526</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="57">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="55">
         <v>1586</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8539,34 +8494,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10">
         <v>-6.0000000000000001E-3</v>
@@ -8586,10 +8541,10 @@
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10">
         <v>-6.0000000000000001E-3</v>
@@ -8609,10 +8564,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10">
         <v>-1.0999999999999999E-2</v>
@@ -8632,10 +8587,10 @@
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <v>1.0999999999999999E-2</v>
@@ -8655,10 +8610,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10">
         <v>0.03</v>
@@ -8678,10 +8633,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10">
         <v>-2.5999999999999999E-2</v>
@@ -8701,10 +8656,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10">
         <v>-2.1999999999999999E-2</v>
@@ -8724,10 +8679,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10">
         <v>5.0000000000000001E-3</v>
@@ -8747,10 +8702,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10">
         <v>-1.4999999999999999E-2</v>
@@ -8770,10 +8725,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10">
         <v>-1E-3</v>
@@ -8793,10 +8748,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10">
         <v>-8.0000000000000002E-3</v>
@@ -8816,10 +8771,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10">
         <v>0.03</v>
@@ -8839,10 +8794,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10">
         <v>0.02</v>
@@ -8862,10 +8817,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10">
         <v>7.0000000000000001E-3</v>
@@ -8885,10 +8840,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10">
         <v>1.4E-2</v>
@@ -8908,10 +8863,10 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10">
         <v>2.1999999999999999E-2</v>
@@ -8931,10 +8886,10 @@
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10">
         <v>-5.5E-2</v>
@@ -8954,10 +8909,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10">
         <v>4.0000000000000001E-3</v>
@@ -8977,10 +8932,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10">
         <v>8.0000000000000002E-3</v>
@@ -9000,10 +8955,10 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="10">
         <v>-0.01</v>
@@ -9023,10 +8978,10 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10">
         <v>0.01</v>
@@ -9046,10 +9001,10 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10">
         <v>0.02</v>
@@ -9069,10 +9024,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10">
         <v>-1.0999999999999999E-2</v>
@@ -9092,10 +9047,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="10">
         <v>3.2000000000000001E-2</v>
@@ -9115,10 +9070,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="10">
         <v>4.1000000000000002E-2</v>
@@ -9138,10 +9093,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10">
         <v>-2.1999999999999999E-2</v>
@@ -9161,10 +9116,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="10">
         <v>-0.03</v>
@@ -9184,10 +9139,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="10">
         <v>1.2E-2</v>
@@ -9207,10 +9162,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10">
         <v>5.0000000000000001E-3</v>
@@ -9230,10 +9185,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="10">
         <v>-0.04</v>
@@ -9253,10 +9208,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="10">
         <v>1.4999999999999999E-2</v>
@@ -9276,10 +9231,10 @@
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="10">
         <v>-3.1E-2</v>
@@ -9299,10 +9254,10 @@
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="10">
         <v>-0.01</v>
@@ -9322,10 +9277,10 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="10">
         <v>1.4999999999999999E-2</v>
@@ -9345,10 +9300,10 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="10">
         <v>1.2999999999999999E-2</v>
@@ -9368,10 +9323,10 @@
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="10">
         <v>4.2999999999999997E-2</v>
@@ -9391,10 +9346,10 @@
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="10">
         <v>-2.3E-2</v>
@@ -9414,10 +9369,10 @@
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="10">
         <v>1.7999999999999999E-2</v>
@@ -9437,10 +9392,10 @@
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="10">
         <v>4.2999999999999997E-2</v>
@@ -9460,10 +9415,10 @@
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="10">
         <v>-8.9999999999999993E-3</v>
@@ -9483,10 +9438,10 @@
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="10">
         <v>-4.3999999999999997E-2</v>
@@ -9506,10 +9461,10 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="10">
         <v>2.1000000000000001E-2</v>
@@ -9529,10 +9484,10 @@
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10">
         <v>3.2000000000000001E-2</v>
@@ -9552,10 +9507,10 @@
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="10">
         <v>3.5999999999999997E-2</v>
@@ -9575,10 +9530,10 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="10">
         <v>-8.0000000000000002E-3</v>
@@ -9598,10 +9553,10 @@
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="10">
         <v>6.0000000000000001E-3</v>
@@ -9621,10 +9576,10 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="10">
         <v>5.0000000000000001E-3</v>
@@ -9644,10 +9599,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="10">
         <v>-2.9000000000000001E-2</v>
@@ -9667,10 +9622,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="10">
         <v>-2.1999999999999999E-2</v>
@@ -9690,10 +9645,10 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="10">
         <v>2.4E-2</v>
@@ -9713,10 +9668,10 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="10">
         <v>-7.0000000000000001E-3</v>
@@ -9736,10 +9691,10 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="10">
         <v>1.0999999999999999E-2</v>
@@ -9759,10 +9714,10 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10">
         <v>2.5999999999999999E-2</v>
@@ -9782,10 +9737,10 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="10">
         <v>1.4E-2</v>
@@ -9805,10 +9760,10 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="10">
         <v>-2.1999999999999999E-2</v>
@@ -9828,10 +9783,10 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="10">
         <v>2.1999999999999999E-2</v>
@@ -9851,10 +9806,10 @@
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="10">
         <v>-2.1000000000000001E-2</v>
@@ -9874,10 +9829,10 @@
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="10">
         <v>-1.2999999999999999E-2</v>
@@ -9897,10 +9852,10 @@
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="10">
         <v>-3.7999999999999999E-2</v>
@@ -9920,10 +9875,10 @@
     </row>
     <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="10">
         <v>1.4E-2</v>
@@ -9943,10 +9898,10 @@
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="10">
         <v>-4.8000000000000001E-2</v>
@@ -9966,10 +9921,10 @@
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="10">
         <v>-2.4E-2</v>
@@ -9989,10 +9944,10 @@
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="10">
         <v>1.6E-2</v>
@@ -10012,10 +9967,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="10">
         <v>3.5000000000000003E-2</v>
@@ -10035,10 +9990,10 @@
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="10">
         <v>1.2999999999999999E-2</v>
@@ -10058,10 +10013,10 @@
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="10">
         <v>1.2E-2</v>
@@ -10081,10 +10036,10 @@
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="10">
         <v>7.0000000000000001E-3</v>
@@ -10104,10 +10059,10 @@
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="10">
         <v>-5.0999999999999997E-2</v>
@@ -10127,10 +10082,10 @@
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="10">
         <v>2.3E-2</v>
@@ -10150,10 +10105,10 @@
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="10">
         <v>6.0999999999999999E-2</v>
@@ -10173,10 +10128,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="10">
         <v>-0.02</v>
@@ -10196,10 +10151,10 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="10">
         <v>-1E-3</v>
@@ -10219,10 +10174,10 @@
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="10">
         <v>-0.04</v>
@@ -10242,10 +10197,10 @@
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="10">
         <v>1.7000000000000001E-2</v>
@@ -10265,10 +10220,10 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="10">
         <v>-3.1E-2</v>
@@ -10288,10 +10243,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="10">
         <v>2.5999999999999999E-2</v>
@@ -10311,10 +10266,10 @@
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="10">
         <v>-2.5999999999999999E-2</v>
@@ -10334,10 +10289,10 @@
     </row>
     <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -10357,10 +10312,10 @@
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="10">
         <v>3.6999999999999998E-2</v>
@@ -10380,10 +10335,10 @@
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="10">
         <v>-1.7999999999999999E-2</v>
@@ -10403,10 +10358,10 @@
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="10">
         <v>8.9999999999999993E-3</v>
@@ -10426,10 +10381,10 @@
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="10">
         <v>1.9E-2</v>
@@ -10449,10 +10404,10 @@
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="10">
         <v>-1.7000000000000001E-2</v>
@@ -10472,10 +10427,10 @@
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="10">
         <v>0.02</v>
@@ -10495,10 +10450,10 @@
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="10">
         <v>1.4999999999999999E-2</v>
@@ -10518,10 +10473,10 @@
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" s="10">
         <v>-2.8000000000000001E-2</v>
@@ -10541,10 +10496,10 @@
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="10">
         <v>3.9E-2</v>
@@ -10564,10 +10519,10 @@
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="10">
         <v>-8.0000000000000002E-3</v>
@@ -10587,10 +10542,10 @@
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="10">
         <v>8.9999999999999993E-3</v>
@@ -10610,10 +10565,10 @@
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="10">
         <v>-4.4999999999999998E-2</v>
@@ -10633,10 +10588,10 @@
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="10">
         <v>4.1000000000000002E-2</v>
@@ -10656,10 +10611,10 @@
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="10">
         <v>0.03</v>
@@ -10679,10 +10634,10 @@
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="10">
         <v>2.1000000000000001E-2</v>
@@ -10702,10 +10657,10 @@
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="10">
         <v>-2E-3</v>
@@ -10725,10 +10680,10 @@
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="10">
         <v>-4.8000000000000001E-2</v>
@@ -10748,10 +10703,10 @@
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" s="10">
         <v>-1.2999999999999999E-2</v>
@@ -10771,10 +10726,10 @@
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" s="10">
         <v>0.05</v>
@@ -10794,10 +10749,10 @@
     </row>
     <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" s="10">
         <v>-2.4E-2</v>
@@ -10817,10 +10772,10 @@
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -10840,10 +10795,10 @@
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="10">
         <v>-6.8000000000000005E-2</v>
@@ -10863,10 +10818,10 @@
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="10">
         <v>2.1999999999999999E-2</v>
@@ -10886,10 +10841,10 @@
     </row>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="10">
         <v>-2.5000000000000001E-2</v>
@@ -10909,10 +10864,10 @@
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" s="10">
         <v>7.2999999999999995E-2</v>
@@ -10932,10 +10887,10 @@
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" s="10">
         <v>-2.1000000000000001E-2</v>
@@ -10955,10 +10910,10 @@
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" s="10">
         <v>-4.0000000000000001E-3</v>
@@ -10978,10 +10933,10 @@
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" s="10">
         <v>1.0999999999999999E-2</v>
@@ -11001,10 +10956,10 @@
     </row>
     <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="10">
         <v>-3.1E-2</v>
@@ -11024,10 +10979,10 @@
     </row>
     <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="10">
         <v>-5.0000000000000001E-3</v>
@@ -11047,10 +11002,10 @@
     </row>
     <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="10">
         <v>-3.3000000000000002E-2</v>
@@ -11070,10 +11025,10 @@
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111" s="10">
         <v>-3.7999999999999999E-2</v>
@@ -11093,10 +11048,10 @@
     </row>
     <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" s="10">
         <v>1.7999999999999999E-2</v>
@@ -11116,10 +11071,10 @@
     </row>
     <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="10">
         <v>2.3E-2</v>
@@ -11139,10 +11094,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C114" s="10">
         <v>2.8000000000000001E-2</v>
@@ -11162,10 +11117,10 @@
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="10">
         <v>-1.4E-2</v>
@@ -11185,10 +11140,10 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C116" s="10">
         <v>2.4E-2</v>
@@ -11208,10 +11163,10 @@
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C117" s="10">
         <v>8.6999999999999994E-2</v>
@@ -11231,7 +11186,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -11244,7 +11199,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11259,71 +11214,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="A1" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C3" s="38">
+        <v>-0.01</v>
+      </c>
+      <c r="D3" s="38">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C3" s="40">
-        <v>-0.01</v>
-      </c>
-      <c r="D3" s="40">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E3" s="40">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="G3" s="17">
         <v>6.0000000000000001E-3</v>
@@ -11339,23 +11294,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="38">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>305</v>
+      <c r="E4" s="39" t="s">
+        <v>255</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="18">
         <v>0.155</v>
@@ -11367,27 +11322,27 @@
         <v>0.222</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="40">
+      <c r="A5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="38">
         <v>0.18</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>304</v>
+      <c r="E5" s="40" t="s">
+        <v>254</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="18">
         <v>0.161</v>
@@ -11399,17 +11354,17 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="18">
         <v>3.3000000000000002E-2</v>
@@ -11426,7 +11381,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -11461,178 +11416,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="A1" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="38">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="40">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="40">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="33">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H3" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="33">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J3" s="33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0.154</v>
+      </c>
+      <c r="C4" s="38">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="35">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H3" s="35">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="35">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J3" s="35">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0.154</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="G4" s="33">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H4" s="33">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D4" s="40">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="I4" s="33">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="35">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H4" s="35">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="I4" s="35">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>0.18</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>192</v>
+      <c r="E5" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="35">
+        <v>155</v>
+      </c>
+      <c r="G5" s="33">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>189</v>
+      <c r="J5" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="35">
+        <v>157</v>
+      </c>
+      <c r="G6" s="33">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>0.38700000000000001</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="52"/>
+      <c r="C13" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11644,183 +11599,460 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE58BF6-9409-49A3-A520-E5E380D1526A}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC9DD3-F7A6-4C01-B84F-384209B90676}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="E2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.121</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="B8" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F8" s="33">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="I8" s="32">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>3.81</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="B9" s="4">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="1">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="4">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="17">
-        <v>0.629</v>
-      </c>
-      <c r="G3" s="17">
-        <v>-0.47299999999999998</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="16">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="E4" s="16">
-        <v>-0.125</v>
-      </c>
-      <c r="F4" s="16">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>-1.792</v>
-      </c>
-      <c r="H4" s="16">
-        <v>-0.70299999999999996</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="16">
-        <v>-4.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="E5" s="17">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.629</v>
-      </c>
-      <c r="G5" s="17">
-        <v>-0.47299999999999998</v>
-      </c>
-      <c r="H5" s="17">
-        <v>-0.44800000000000001</v>
-      </c>
-      <c r="I5" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="17">
-        <v>-2.8340000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="B15" s="81">
+        <v>811</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="81">
+        <v>811</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="55">
+        <v>517</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Supplementary Tables.xlsx
+++ b/Supplementary Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siobh\Documents\Uni\PhD\Y1\Clozapine Project\Git\clozapine-project\Z Write Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE7F82B-E7AD-444B-AE58-89276CE7C5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4C1B8-E28A-42A4-B0B0-0C18266722D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="5" activeTab="8" xr2:uid="{28DC69DB-FF7C-414F-AEA8-1A38A7BCE324}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{28DC69DB-FF7C-414F-AEA8-1A38A7BCE324}"/>
   </bookViews>
   <sheets>
     <sheet name="ST1 (CYP1A2 PGx)" sheetId="6" r:id="rId1"/>
@@ -2522,9 +2522,6 @@
     <t># (Path)</t>
   </si>
   <si>
-    <t>Supplementary Table 1. CYP1A2 Pharmacogenomic (PGx) star allele activity identified in CLOZUK3 sample. Table shows activity scores assigned to each allele, alongside a comparison of allele frequencies in CLOZUK3, and previous research in similar samples (Phan et al., 2020; Neyshaburinezhad et al. 2021). PGx = Pharmacogenomic; EUR = European.</t>
-  </si>
-  <si>
     <t>HLA-A</t>
   </si>
   <si>
@@ -5210,6 +5207,9 @@
   </si>
   <si>
     <t>Supplementary Table 9. Replication Analysis: Predictors of Lowest Absolute Neutrophil Count. Standardised regression coefficients are reported alongside standard error and p values. TDS = Time between Dose and Sample; ANC = Absolute Neutrophil Count.</t>
+  </si>
+  <si>
+    <t>Supplementary Table 1. CYP1A2 Pharmacogenomic (PGx) star allele activity identified in CLOZUK3 sample. Table shows activity scores assigned to each allele, alongside a comparison of allele frequencies in CLOZUK3, and previous research in similar samples. PGx = Pharmacogenomic; EUR = European.</t>
   </si>
 </sst>
 </file>
@@ -5723,6 +5723,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5735,15 +5753,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5753,13 +5762,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5771,37 +5798,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6147,7 +6147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A9489-34EA-41EE-B3C5-CD04DB47AFBC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6169,10 +6171,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6245,7 +6247,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6268,7 +6270,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6276,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6284,7 +6286,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6292,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6300,7 +6302,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6316,7 +6318,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6324,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6332,7 +6334,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6340,7 +6342,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6348,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6364,7 +6366,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6372,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +6382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +6390,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +6398,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6404,7 +6406,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6412,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6420,7 +6422,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +6430,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6436,7 +6438,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6444,7 +6446,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +6454,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6460,7 +6462,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6468,7 +6470,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6476,7 +6478,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6484,7 +6486,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6492,7 +6494,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6500,7 +6502,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6508,7 +6510,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6516,7 +6518,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6524,7 +6526,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6532,7 +6534,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6573,7 +6575,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3">
         <v>28</v>
@@ -6587,7 +6589,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3">
         <v>49</v>
@@ -6601,7 +6603,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="3">
         <v>26</v>
@@ -6615,7 +6617,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="3">
         <v>18</v>
@@ -6629,7 +6631,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="3">
         <v>14</v>
@@ -6643,7 +6645,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="3">
         <v>16</v>
@@ -6657,7 +6659,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="3">
         <v>36</v>
@@ -6674,7 +6676,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6748,7 +6750,7 @@
         <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>220</v>
@@ -6776,7 +6778,7 @@
         <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>221</v>
@@ -6804,7 +6806,7 @@
         <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>221</v>
@@ -6832,7 +6834,7 @@
         <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>226</v>
@@ -6860,7 +6862,7 @@
         <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>227</v>
@@ -6888,7 +6890,7 @@
         <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>232</v>
@@ -6916,7 +6918,7 @@
         <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>228</v>
@@ -6944,7 +6946,7 @@
         <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>229</v>
@@ -6972,7 +6974,7 @@
         <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>209</v>
@@ -7000,7 +7002,7 @@
         <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>210</v>
@@ -7028,7 +7030,7 @@
         <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>225</v>
@@ -7056,7 +7058,7 @@
         <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>239</v>
@@ -7084,7 +7086,7 @@
         <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>240</v>
@@ -7112,7 +7114,7 @@
         <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15" s="45" t="s">
         <v>208</v>
@@ -7140,7 +7142,7 @@
         <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H16" s="45" t="s">
         <v>230</v>
@@ -7168,7 +7170,7 @@
         <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>231</v>
@@ -7196,7 +7198,7 @@
         <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H18" s="45" t="s">
         <v>211</v>
@@ -7224,7 +7226,7 @@
         <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H19" s="45" t="s">
         <v>216</v>
@@ -7252,7 +7254,7 @@
         <v>241</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H20" s="45" t="s">
         <v>222</v>
@@ -7280,7 +7282,7 @@
         <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H21" s="45" t="s">
         <v>222</v>
@@ -7308,7 +7310,7 @@
         <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H22" s="45" t="s">
         <v>222</v>
@@ -7326,7 +7328,7 @@
         <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H23" s="45" t="s">
         <v>211</v>
@@ -7344,7 +7346,7 @@
         <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H24" s="45" t="s">
         <v>212</v>
@@ -7362,7 +7364,7 @@
         <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H25" s="45" t="s">
         <v>213</v>
@@ -7380,7 +7382,7 @@
         <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H26" s="45" t="s">
         <v>214</v>
@@ -7398,7 +7400,7 @@
         <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H27" s="45" t="s">
         <v>211</v>
@@ -7416,7 +7418,7 @@
         <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" s="45" t="s">
         <v>213</v>
@@ -7434,7 +7436,7 @@
         <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H29" s="45" t="s">
         <v>215</v>
@@ -7452,7 +7454,7 @@
         <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" s="45" t="s">
         <v>223</v>
@@ -7470,7 +7472,7 @@
         <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H31" s="45" t="s">
         <v>223</v>
@@ -7488,7 +7490,7 @@
         <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>219</v>
@@ -7506,7 +7508,7 @@
         <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>232</v>
@@ -7524,7 +7526,7 @@
         <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H34" s="45" t="s">
         <v>233</v>
@@ -7542,7 +7544,7 @@
         <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H35" s="45" t="s">
         <v>237</v>
@@ -7560,7 +7562,7 @@
         <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H36" s="45" t="s">
         <v>238</v>
@@ -7578,7 +7580,7 @@
         <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H37" s="45" t="s">
         <v>224</v>
@@ -7596,7 +7598,7 @@
         <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H38" s="45" t="s">
         <v>224</v>
@@ -7614,7 +7616,7 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H39" s="45" t="s">
         <v>217</v>
@@ -7632,7 +7634,7 @@
         <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H40" s="45" t="s">
         <v>218</v>
@@ -7650,7 +7652,7 @@
         <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H41" s="45" t="s">
         <v>236</v>
@@ -7658,7 +7660,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7686,16 +7688,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -7777,7 +7779,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="3">
         <v>0.219</v>
@@ -7786,7 +7788,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7846,7 +7848,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3">
         <v>0.21199999999999999</v>
@@ -7855,7 +7857,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="47"/>
     </row>
@@ -7923,127 +7925,122 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="61">
         <v>0.71399999999999997</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="55">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="51">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="51">
         <v>0.96199999999999997</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="55">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51">
         <v>0.96899999999999997</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="51">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="55">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="51">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="51">
         <v>523</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="55">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="51">
         <v>521</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>1586</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="55">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51">
         <v>1580</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="55" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A12:G12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A17:G17"/>
@@ -8055,6 +8052,11 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -8078,16 +8080,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="64" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -8325,133 +8327,138 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="64">
         <v>0.71299999999999997</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="71">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="64">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="70"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="51">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="55">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="51">
         <v>0.98099999999999998</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="51">
         <v>0.56899999999999995</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="55">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="51">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>496</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="55">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51">
         <v>523</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="77"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="51">
         <v>1526</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="55">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51">
         <v>1586</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="55" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:G15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B14:D15"/>
@@ -8464,11 +8471,6 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11186,7 +11188,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -11307,7 +11309,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>154</v>
@@ -11339,7 +11341,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>155</v>
@@ -11381,7 +11383,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -11471,7 +11473,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="38">
         <v>0.05</v>
@@ -11583,7 +11585,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -11602,7 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC9DD3-F7A6-4C01-B84F-384209B90676}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -11626,11 +11628,11 @@
       </c>
       <c r="F1" s="85"/>
       <c r="G1" s="86"/>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -12008,11 +12010,11 @@
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="83"/>
-      <c r="H15" s="55">
+      <c r="H15" s="51">
         <v>517</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
@@ -12028,18 +12030,18 @@
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="83"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Supplementary Tables.xlsx
+++ b/Supplementary Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siobh\Documents\Uni\PhD\Y1\Clozapine Project\Git\clozapine-project\Z Write Up\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siobh\Documents\Uni\PhD\Repos\clozapine\fancy-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4C1B8-E28A-42A4-B0B0-0C18266722D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCD6FB2-932C-44CA-A96D-701B58771C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{28DC69DB-FF7C-414F-AEA8-1A38A7BCE324}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="344">
   <si>
     <t>NA</t>
   </si>
@@ -4545,12 +4545,20 @@
     <t>References</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">EUR Frequency </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Supplementary Table 9. Replication Analysis: Predictors of Lowest Absolute Neutrophil Count. Standardised regression coefficients are reported alongside standard error and p values. TDS = Time between Dose and Sample; ANC = Absolute Neutrophil Count.</t>
+  </si>
+  <si>
+    <t>Supplementary Table 1. CYP1A2 Pharmacogenomic (PGx) star allele activity identified in CLOZUK3 sample. Table shows activity scores assigned to each allele, alongside a comparison of allele frequencies in CLOZUK3, and previous research in similar samples. PGx = Pharmacogenomic; EUR = European.</t>
+  </si>
+  <si>
+    <t>Caution is advised when prescribing clozapine to elderly people due to increased likelihood of impaired renal function, resulting in slower titration and/or reduced doses.</t>
+  </si>
+  <si>
+    <r>
+      <t>Age is positively associated with plasma clozapine concentration.</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4558,16 +4566,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EUR ALFA Allele Frequency </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age is positively associated with plasma norclozapine concentration.</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4575,12 +4582,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caution is advised when prescribing clozapine to elderly people due to increased likelihood of impaired renal function, resulting in slower titration and/or reduced doses. </t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffeine consumption was shown to increase white blood cell count in mice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffeine consumption induces CYP1A2 activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient smoking status (and smoking cessation) is a key consideration during clozapine titration and dosing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigarette smoking can result in changes to white blood cell count. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigarette smoking induces CYP1A2 activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agranulocytosis and Neutropenia are some of the adverse drug reactions that may arise following clozapine use. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases in clozapine dose generally result in increased plasma clozapine levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clozapine use can result in weight gain as an adverse drug reaction; some research has shown that this weight gain also varies with respect to dose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aside from caffeine and cigarette use, CYP1A2 activity may also be affected by other medication that patients may be taking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are many other medications, other than clozapine, that may cause drug-induced neutropenia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP1A2 is involved in the metabolism of clozapine to norclozapine, therefore increased activity results in faster clearance of clozapine, resulting in decreased levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pharmacogenomic activity score is a proxy of enzyme activity calculated on the basis of pharmacogenomic variants of known function in a given pharmacogene. While initially developed for CYP2D6, we have applied it to CYP1A2 on the basis of PharmGKB VIP information. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Duffy-Null Genotype is associated with decreased baseline absolute neutrophil count in carriers compared to non-carriers. </t>
+  </si>
+  <si>
+    <r>
+      <t>Increases in metabolic ratio (increased plasma clozapine with respect to plasma norclozapine) are associated with decreased ANC.</t>
     </r>
     <r>
       <rPr>
@@ -4591,632 +4637,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Age is positively associated with plasma clozapine concentration.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Age is positively associated with plasma norclozapine concentration.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caffeine consumption was shown to increase white blood cell count in mice. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Caffeine consumption induces CYP1A2 activity. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patient smoking status (and smoking cessation) is a key consideration during clozapine titration and dosing. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cigarette smoking can result in changes to white blood cell count. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cigarette smoking induces CYP1A2 activity. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Agranulocytosis and Neutropenia are some of the adverse drug reactions that may arise following clozapine use. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases in clozapine dose generally result in increased plasma clozapine levels. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Clozapine use can result in weight gain as an adverse drug reaction; some research has shown that this weight gain also varies with respect to dose. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are many other medications, other than clozapine, that may cause drug-induced neutropenia. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aside from caffeine and cigarette use, CYP1A2 activity may also be affected by other medication that patients may be taking. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CYP1A2 is involved in the metabolism of clozapine to norclozapine, therefore increased activity results in faster clearance of clozapine, resulting in decreased levels. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A pharmacogenomic activity score is a proxy of enzyme activity calculated on the basis of pharmacogenomic variants of known function in a given pharmacogene. While initially developed for CYP2D6, we have applied it to CYP1A2 on the basis of PharmGKB VIP information. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Duffy-Null Genotype is associated with decreased baseline absolute neutrophil count in carriers compared to non-carriers. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increases in metabolic ratio (increased plasma clozapine with respect to plasma norclozapine) are associated with decreased ANC.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The nitrenium ion is thought to be a key instigator of neutrophil apoptosis in clozapine users. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rs2472297_T was associated with decreased plasma clozapine levels. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rs2011425_G and rs61750900_T are both associated with decreased plasma norclozapine levels. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rs1126545_T was associated with increased metabolic ratio. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases in plasma clozapine concentration are associated with decreased ANC. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Norclozapine is the primary product of CYP-mediated clozapine metabolism. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plasma clozapine concentration is used alongside plasma norclozapine concentration to calculate metabolic ratio. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Clozapine can be oxidised in the presence of hypochlorous acid and chloride to the nitrenium ion. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases in plasma norclozapine concentration are associated with increased ANC. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plasma norclozapine concentration is used alongside plasma clozapine concentration to calculate metabolic ratio. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Norclozapine may also react to form a reactive nitrenium intermediate. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PRS for clozapine metabolism was associated with plasma clozapine concentration. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PRS for norclozapine metabolism was associated with plasma norclozapine concentration. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Men are more likely to develop treatment resistant schizophrenia than women. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patient sex taken into consideration during clozapine titration. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Being female is associated with increased plasma clozapine concentration in comparison to males. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Being female is associated with increased neutrophil counts in comparison to being male. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Males are heavier than females based on self-reported weight. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <t>Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. 30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Clozapine is prescribed to individuals with a diagnosis of treatment resistant schizophrenia due to its effectiveness at dealing with refactory symptoms of schizophrenia. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People with schizophrenia who are not responsive to at least two types of antipsychotic medication, delivered at an appropriate dose, and for an appropriate length of time, and having ruled out non-adherance are diagnosed with Treatment Resistant Schizophrenia. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increased weight and obesity has been associated with elevated neutrophil counts. </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>33</t>
-    </r>
-  </si>
-  <si>
-    <t>Supplementary Table 9. Replication Analysis: Predictors of Lowest Absolute Neutrophil Count. Standardised regression coefficients are reported alongside standard error and p values. TDS = Time between Dose and Sample; ANC = Absolute Neutrophil Count.</t>
-  </si>
-  <si>
-    <t>Supplementary Table 1. CYP1A2 Pharmacogenomic (PGx) star allele activity identified in CLOZUK3 sample. Table shows activity scores assigned to each allele, alongside a comparison of allele frequencies in CLOZUK3, and previous research in similar samples. PGx = Pharmacogenomic; EUR = European.</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The nitrenium ion is thought to be a key instigator of neutrophil apoptosis in clozapine users. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2472297_T was associated with decreased plasma clozapine levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2011425_G and rs61750900_T are both associated with decreased plasma norclozapine levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1126545_T was associated with increased metabolic ratio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norclozapine is the primary product of CYP-mediated clozapine metabolism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases in plasma clozapine concentration are associated with decreased ANC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma clozapine concentration is used alongside plasma norclozapine concentration to calculate metabolic ratio. </t>
+  </si>
+  <si>
+    <t>Clozapine can be oxidised in the presence of hypochlorous acid and chloride to the nitrenium ion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases in plasma norclozapine concentration are associated with increased ANC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma norclozapine concentration is used alongside plasma clozapine concentration to calculate metabolic ratio. </t>
+  </si>
+  <si>
+    <t>Increased weight and obesity has been associated with elevated neutrophil counts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People with schizophrenia who are not responsive to at least two types of antipsychotic medication, delivered at an appropriate dose, and for an appropriate length of time, and having ruled out non-adherance are diagnosed with Treatment Resistant Schizophrenia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clozapine is prescribed to individuals with a diagnosis of treatment resistant schizophrenia due to its effectiveness at dealing with refactory symptoms of schizophrenia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assays were restricted to when the sample was taken within 6 - 24 hours of the dose as plasma levels cannot be correctly inferred outside of this range. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Males are heavier than females based on self-reported weight. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being female is associated with increased neutrophil counts in comparison to being male. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being female is associated with increased plasma clozapine concentration in comparison to males. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient sex taken into consideration during clozapine titration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men are more likely to develop treatment resistant schizophrenia than women. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRS for norclozapine metabolism was associated with plasma norclozapine concentration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRS for clozapine metabolism was associated with plasma clozapine concentration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norclozapine may also react to form a reactive nitrenium intermediate. </t>
+  </si>
+  <si>
+    <t>EUR Frequency</t>
+  </si>
+  <si>
+    <t>EUR ALFA Allele Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5379,15 +4880,6 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF181818"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5723,24 +5215,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5753,6 +5227,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5762,13 +5245,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5780,28 +5290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6148,7 +5640,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6171,10 +5663,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6247,7 +5739,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6257,283 +5749,181 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1ED4A9-3641-4FF1-B1F3-6D371F092831}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6688,8 +6078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A1845C-D015-45E2-8F98-B8D6139A0EF1}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7058,7 +6448,7 @@
         <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>239</v>
@@ -7086,7 +6476,7 @@
         <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>240</v>
@@ -7232,7 +6622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7328,7 +6718,7 @@
         <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H23" s="45" t="s">
         <v>211</v>
@@ -7346,7 +6736,7 @@
         <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H24" s="45" t="s">
         <v>212</v>
@@ -7436,7 +6826,7 @@
         <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H29" s="45" t="s">
         <v>215</v>
@@ -7454,7 +6844,7 @@
         <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H30" s="45" t="s">
         <v>223</v>
@@ -7472,7 +6862,7 @@
         <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H31" s="45" t="s">
         <v>223</v>
@@ -7490,7 +6880,7 @@
         <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>219</v>
@@ -7508,7 +6898,7 @@
         <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>232</v>
@@ -7526,7 +6916,7 @@
         <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H34" s="45" t="s">
         <v>233</v>
@@ -7544,7 +6934,7 @@
         <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H35" s="45" t="s">
         <v>237</v>
@@ -7562,7 +6952,7 @@
         <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H36" s="45" t="s">
         <v>238</v>
@@ -7580,7 +6970,7 @@
         <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H37" s="45" t="s">
         <v>224</v>
@@ -7598,7 +6988,7 @@
         <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H38" s="45" t="s">
         <v>224</v>
@@ -7616,7 +7006,7 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H39" s="45" t="s">
         <v>217</v>
@@ -7634,7 +7024,7 @@
         <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H40" s="45" t="s">
         <v>218</v>
@@ -7652,7 +7042,7 @@
         <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H41" s="45" t="s">
         <v>236</v>
@@ -7688,16 +7078,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -7925,114 +7315,114 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="58">
         <v>0.71399999999999997</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="51">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="55">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="55">
         <v>0.96199999999999997</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="55">
         <v>0.96899999999999997</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="55">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="51">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="55">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="55">
         <v>523</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55">
         <v>521</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>1586</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="55">
         <v>1580</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="51" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8041,6 +7431,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A17:G17"/>
@@ -8052,11 +7447,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -8080,16 +7470,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -8327,125 +7717,125 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="71">
         <v>0.71299999999999997</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="64">
+      <c r="C14" s="72"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="71">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="55">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55">
         <v>0.98099999999999998</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="55">
         <v>0.56899999999999995</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="51">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="55">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="55">
         <v>496</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="55">
         <v>523</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="55">
         <v>1526</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="55">
         <v>1586</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8454,11 +7844,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:G15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B14:D15"/>
@@ -8471,6 +7856,11 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11628,11 +11018,11 @@
       </c>
       <c r="F1" s="85"/>
       <c r="G1" s="86"/>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -12010,11 +11400,11 @@
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="83"/>
-      <c r="H15" s="51">
+      <c r="H15" s="55">
         <v>517</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
@@ -12030,18 +11420,18 @@
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="83"/>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
